--- a/data/financial_statements/socf/JBHT.xlsx
+++ b/data/financial_statements/socf/JBHT.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -107,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,2328 +578,2331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-768048000</v>
+      </c>
+      <c r="C2">
         <v>269382000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>255341000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>243325000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>242209000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>199829000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>172162000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>146606000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>154007000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>125496000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>121698000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>104834000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>144676000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>118410000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>133633000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>119601000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>88681000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>131110000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>151652000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>118142000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>385307000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>100385000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>97869000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>102702000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>117556000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>109425000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>105011000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>100098000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>116745000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>115139000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>103419000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>91932000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>110306000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>102415000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>93407000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>68664000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>91864000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>89473000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>87696000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>73349000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>166580000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>157571000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>148763000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>141254000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>138923000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>139371000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>137545000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>134589000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>132393000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>130298000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>130095000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>128417000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>126804000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>123994000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>119930000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>114086000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>108801000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>107423000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>105583000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>102320000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>95960000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>93049000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>92189000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>91793000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>91001000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>90364000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>88352000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>88374000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>86201000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>83660000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>81378000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>78387000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>75416000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>71726000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>68967000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>66076000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>64291000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>62283000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>60730000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>67714000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>94547000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>28625000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>47148000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>32273000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>36775000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>59406000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>6770000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>36565000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>14265000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>46416000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>80901000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>-3563000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>34840000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>49337000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>138884000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>-21273000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>25193000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>18263000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-175731000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3722000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>-25661000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>14807000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>73151000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>-2921000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>40000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>26259000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>96016000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>10797000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-21858000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>31419000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>97940000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>14362000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-5962000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1994000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>40321000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>21713000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>834000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>12228000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>50618000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-30023000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-232920000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-63671000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-149024000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-74762000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-94759000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>238000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-171189000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>27644000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>33549000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>40731000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-10933000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-37597000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>58109000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>43940000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-76016000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-118719000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>19864000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-52679000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-109678000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-41609000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>37855000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-2590000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-42701000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-48960000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-26743000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>25614000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-6157000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-34069000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>22623000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>30440000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-3678000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-32509000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-66592000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>16395000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-5271000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-50310000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-63322000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6">
         <v>24000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>-28216000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-3103000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>86959000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38659000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>52363000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5993000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>43280000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-92349000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>76341000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>15918000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-5392000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-149905000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>31563000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>47340000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-14325000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>20780000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>43541000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>44366000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>-10650000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-14783000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>86751000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>40170000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-26901000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>3991000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>45560000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>-29901000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>41168000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-19044000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>9943000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>15959000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1742000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-23786000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-7788000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>11820000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>35038000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-25866000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-60077000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>-10773000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>108246000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>-2351000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>40093000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-52389000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>9112000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-28742000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>23794000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>14039000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>22118000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>38635000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>23483000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-23376000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-14209000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-26150000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-26000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-39703000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>28644000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>12533000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>16046000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>24171000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>24830000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>26000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>5479000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-5146000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-13745000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-8828000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>11103000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>11805000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>2822000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>4796000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-593000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-10112000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>18774000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>952000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>21556000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-49000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>22978000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>644000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>17169000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-17685000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>6299000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-47603000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>33688000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-13657000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9383000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-38515000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>12156000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>12440000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-1553000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>23898000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>23066000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-48528000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>55044000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>22718000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>12213000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-113997000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>18534000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>18958000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>35434000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-53892000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-3020000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-23694000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>35064000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-12556000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1471000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>30238000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>41803000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-72095000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>2077000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>42190000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>30883000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-79791000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>0</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-35264000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>42764000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-7501000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>0</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-35259000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>37379000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>40853000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>25919000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>35734000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-147005000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>46096000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>39272000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>46385000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-25948000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>34356000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>33583000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-60029000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-21331000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>39759000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>31018000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-54421000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-10780000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>31340000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>22496000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-49189000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>11232000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>10956000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>12211000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>35063000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-87420000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>16818000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>11347000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>22154000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-62084000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>20627000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>9286000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>5678000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-71856000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>3685000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>17182000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>8259000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-41144000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>6884000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>15172000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-4166000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>570879000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>492742000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>291785000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>254049000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>301101000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>304090000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>364658000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>211865000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>271044000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>390787000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>249163000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>160752000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>330934000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>355920000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>250741000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>310238000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>248570000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>267415000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>261618000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>226604000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>185102000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>157814000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>285633000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>170180000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>209825000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>169242000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>304896000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>176348000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>243423000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>197994000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>255543000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>160414000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>185364000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>141956000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>159045000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>163123000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>117657000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>86812000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>206759000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>-419934000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-308968000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-289126000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-365943000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-250364000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-174857000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-85854000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-152048000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-184107000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-135878000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-128736000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-101590100</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-111275900</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-263185000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-212146000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-300508000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-230846000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-175086000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-179045000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-195677000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-149746000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-74085000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-91007000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-126502000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-100796000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-143500000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-114458000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-125776000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-131414000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-157902000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-141344000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-180485000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-126373000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-194640000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-158212000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-108880000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-121932000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-96634000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-115058000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>-31162000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-86939000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-12136000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-17422000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>311000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-98543000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>751000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-137630000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14">
         <v>9000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-92000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-101000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-39000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>60000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>28000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-34000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-32000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-30000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-15000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-10000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>15000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-994000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-299000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-247000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-177000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>3000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-3467000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-115000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-10000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-5000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-2000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-1000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>2000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-97000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-20000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>8000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>12000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>9000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-2000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-34000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>11000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-12000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>-451096000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-308968000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-376065000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-365864000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-250355000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-174949000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-85850000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-164285000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-184146000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-135818000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-128708000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-119046000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-110997000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-263215000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-310704000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-300518000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-230831000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-176080000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-179344000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-195173000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-287553000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-74082000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-94474000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-126617000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-100806000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-143505000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-114460000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-125777000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-131412000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-157999000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-161344000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-180477000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-126361000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-194631000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-158212000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-108882000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-121966000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-96623000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-115070000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>-50000100</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-1516000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>505000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>506000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>505000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>506000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>505000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>506000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>507000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>508000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-77593000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>78581000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>135518000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>68353300</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>69733900</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-7908000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-63364000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>764000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>146863000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-14336900</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-29636000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>56363100</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-3790100</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>3157000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-64668000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>25249000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>99417000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>12106000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-65309000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>94978100</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-27992000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>23590000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>140510000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>14262100</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>21214000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>80057000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-92957000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>-67736000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-162728000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-84800000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-29164000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-60984000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-79995000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-10048000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-24807000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-14975000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-788000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-78820000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-54616000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-46278000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-188768000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-2520000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-51851000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-68875000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-49076000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-99000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-48000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-18736000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-49107000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-130037000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-75029000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-92398000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>946000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-100579000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-50158000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-199870000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-28320000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-5799000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>-50376000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-19810000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-71077000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>168000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-49368000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-14827000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-59448000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>360000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>-41554000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-41734000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-41940000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-31551000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-31590000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-31704000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-29597000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-28526000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-28533000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-28487000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-28688000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-27730000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-27809000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-28006000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-28272000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-26209000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-26202000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-26242000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-26341000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-25242000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-25243000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-25275000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-25602000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-24513000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-24879000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-24788000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-24810000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-24069000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-24350000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-24477000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-24468000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-23437000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-23420000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>-23297000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>-23450000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>-17585000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-17671000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-17555000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>19850000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>17038000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1879000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>17317000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>15903000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>17711000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>16114000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>14174000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>14406000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>16972000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>19535000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>512000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>6252000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>233000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>47000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-1569000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>12748000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>638000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1060000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-1000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>12208000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>5117000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>320000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-1687000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>15638000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>6933000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1066000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>-159290000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-204462000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-126740000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-62231000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-92069000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-111193000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-39140000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-52827000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-43003000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-28769000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-107001000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-81838000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-151680000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-138193000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>104726000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-9707000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-25343000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-83226000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-89804000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-24526000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>102884000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-88719000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-185275000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-42667000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-114815000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-20452000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-190010000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-50547000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-112055000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-40056000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-94513000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>20165000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-59014000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-65667000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>117548000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-54378000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>4354000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>9987000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-91531000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-39507000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-20688000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-211020000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-174046000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-41323000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>17948000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>239668000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-5247000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>43895000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>226200000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>13454000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-40132000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>68257000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-45488000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>44763000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>13000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-7604000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>8109000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-7530000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>6905000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>433000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-4987000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>5884000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>896000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>-5796000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>5285000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>426000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>24000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-44000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-61000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-314000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>102000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-11000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>-118342000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>118381000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-137000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>45000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>176000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>158000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>355549000</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2794,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>313302000</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2806,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>35000000</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2818,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>7600000</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2830,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>14612000</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2842,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>6377000</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2854,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
         <v>5566000</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -2866,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>5961000</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -2878,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
         <v>5831000</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -2890,860 +3007,869 @@
         <v>0</v>
       </c>
       <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
         <v>5589000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>-39507000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-20688000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>144529000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-174046000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-41323000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>17948000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>552970000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-5247000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>43895000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>226200000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>48454000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-40132000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>68257000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-45488000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>52363000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>13000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-7604000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>8109000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>7082000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>6905000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>433000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>-4987000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>12261000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>896000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-5796000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>5285000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>5992000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>24000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-44000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-60000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>5646000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>102000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-11000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>-118342000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>124212000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-137000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>45000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>176000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>5747000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>20153000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>20443000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>19141000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>14094000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>15945000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>16499000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>14967000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>12040000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>14593000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>16002000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>18063000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>11170000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>13850000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>14733000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>13571000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>10185000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>11183000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>13965000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>12036000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>7338000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>7843000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>11940000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>11170000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>10452000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>7258000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>11943000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>10972000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>10218000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>6313000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>10568000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>10129000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>9211000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>7308000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>8842000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>9972000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>8752000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>5625000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>8840000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>9137000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>125228000</v>
+      </c>
+      <c r="C25">
         <v>-41554000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-41734000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-41940000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-31551000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-31590000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-31704000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-29597000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-28526000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-28533000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-28487000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-28688000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-27730000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-27809000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-28006000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>-28272000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-26209000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-26202000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-26242000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-26341000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-25242000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-25243000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-25275000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>-25602000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>-24513000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-24879000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-24788000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-24810000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-24069000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-24350000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-24477000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-24468000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-23437000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-23420000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>-23297000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-23450000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>-17585000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>-17671000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>-17555000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>0.0871</v>
+      </c>
+      <c r="C26">
         <v>0.093</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.07140000000000001</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.0547</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.0439</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.0438</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.0454</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.0448</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.07199999999999999</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.0925</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.1011</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.154</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.1206</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.1244</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.1649</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.1318</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.1122</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.0803</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.07389999999999999</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.0784</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.1035</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.111</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.1184</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.1168</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.113</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.13</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.1312</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.1265</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.1464</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.1502</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.09279999999999999</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.0877</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.0941</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.0959</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.1124</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.0863</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.0774</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.0794</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.0776</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.06809999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>67203000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-14717000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-128928000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-176562000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-69924000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-44218000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>21101000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-83501000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-23410000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>124526000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-32182000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-193242000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>89283000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>63453000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-38127000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-31413000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>29932000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-16853000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>19630000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-85292000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-14965000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-7443000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>75935000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-112320000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>12320000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-26173000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>90187000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-124787000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>31286000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>32773000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>50814000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-126219000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-6829000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-17215000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>19420000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-35138000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-57820000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-64001000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>60452000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>-67736000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-162728000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-84800000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-29164000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-60984000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-79995000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-10048000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-24807000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-14975000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-788000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-78820000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-54616000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-46278000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-188768000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-2520000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-51851000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-68875000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-49076000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-99000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-48000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-18736000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-49107000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-130037000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-75029000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-92398000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>946000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-100579000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-50158000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-199870000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-28320000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-5799000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-50376000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-19810000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-71077000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>168000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-49368000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-14827000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-59448000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>360000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>-67736000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-162728000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-84800000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-29164000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-60984000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-79995000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-10048000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-24807000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-14975000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-788000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-78820000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-54616000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-46278000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-188768000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-2520000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-51851000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-68875000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-49076000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-99000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-48000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-18736000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-49107000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-130037000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-75029000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-92398000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>946000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-100579000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-50158000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-199870000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-28320000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-5799000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-50376000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-19810000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-71077000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>168000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-49368000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-14827000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-59448000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>360000</v>
       </c>
     </row>
